--- a/pred_ohlcv/54_21/2020-01-25 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 TRV ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-2030064.324073945</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2030064.324073945</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2030064.324073945</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2030064.324073945</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1976235.472573945</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2030475.284773945</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1996010.986373945</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2031899.269873945</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2010281.269873945</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2010281.269873945</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-96789.54667919537</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-95639.54667919537</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-91723.06833992097</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-470597.1331399209</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-609947.563939921</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-59870.485939921</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-73147.712739921</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-67111.00603992101</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-112361.077139921</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-101687.761839921</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-102042.052839921</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-101815.950239921</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-101815.950239921</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-151863.167539921</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-152702.518239921</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-152702.518239921</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 TRV ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-2030064.324073945</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2030064.324073945</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2030064.324073945</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2030064.324073945</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1976235.472573945</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2030475.284773945</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2030475.284773945</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2030475.284773945</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1996010.986373945</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1996010.986373945</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1995960.986373945</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2031899.269873945</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2031899.269873945</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2010281.269873945</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2010281.269873945</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-96789.54667919537</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-95639.54667919537</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>4424.096760079032</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>4424.096760079032</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-91723.06833992097</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-233644.5288399209</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-233588.5288399209</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-357579.4394399209</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-357579.4394399209</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-361522.127139921</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-361412.127139921</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-364317.5875399209</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-364179.5875399209</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-364223.5875399209</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-470597.1331399209</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-73147.712739921</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-67111.00603992101</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-112361.077139921</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-101687.761839921</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-102042.052839921</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-101815.950239921</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-101815.950239921</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-151863.167539921</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-152702.518239921</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-152702.518239921</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
